--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Tgfbr2</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.48732880997319</v>
+        <v>2.999238666666667</v>
       </c>
       <c r="H2">
-        <v>2.48732880997319</v>
+        <v>8.997716</v>
       </c>
       <c r="I2">
-        <v>0.02479256560191059</v>
+        <v>0.02939707704242819</v>
       </c>
       <c r="J2">
-        <v>0.02479256560191059</v>
+        <v>0.02939707704242818</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.772400293381</v>
+        <v>34.48183333333333</v>
       </c>
       <c r="N2">
-        <v>33.772400293381</v>
+        <v>103.4455</v>
       </c>
       <c r="O2">
-        <v>0.21813982927937</v>
+        <v>0.2193934666657199</v>
       </c>
       <c r="P2">
-        <v>0.21813982927937</v>
+        <v>0.2193934666657199</v>
       </c>
       <c r="Q2">
-        <v>84.00306423167358</v>
+        <v>103.4192478308889</v>
       </c>
       <c r="R2">
-        <v>84.00306423167358</v>
+        <v>930.773230478</v>
       </c>
       <c r="S2">
-        <v>0.005408246027798355</v>
+        <v>0.00644952664217757</v>
       </c>
       <c r="T2">
-        <v>0.005408246027798355</v>
+        <v>0.006449526642177569</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.48732880997319</v>
+        <v>2.999238666666667</v>
       </c>
       <c r="H3">
-        <v>2.48732880997319</v>
+        <v>8.997716</v>
       </c>
       <c r="I3">
-        <v>0.02479256560191059</v>
+        <v>0.02939707704242819</v>
       </c>
       <c r="J3">
-        <v>0.02479256560191059</v>
+        <v>0.02939707704242818</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>55.4929033278497</v>
+        <v>55.607043</v>
       </c>
       <c r="N3">
-        <v>55.4929033278497</v>
+        <v>166.821129</v>
       </c>
       <c r="O3">
-        <v>0.3584350639278132</v>
+        <v>0.3538043298587107</v>
       </c>
       <c r="P3">
-        <v>0.3584350639278132</v>
+        <v>0.3538043298587107</v>
       </c>
       <c r="Q3">
-        <v>138.0290971964177</v>
+        <v>166.778793504596</v>
       </c>
       <c r="R3">
-        <v>138.0290971964177</v>
+        <v>1501.009141541364</v>
       </c>
       <c r="S3">
-        <v>0.008886524836455323</v>
+        <v>0.0104008131428012</v>
       </c>
       <c r="T3">
-        <v>0.008886524836455323</v>
+        <v>0.01040081314280119</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.48732880997319</v>
+        <v>2.999238666666667</v>
       </c>
       <c r="H4">
-        <v>2.48732880997319</v>
+        <v>8.997716</v>
       </c>
       <c r="I4">
-        <v>0.02479256560191059</v>
+        <v>0.02939707704242819</v>
       </c>
       <c r="J4">
-        <v>0.02479256560191059</v>
+        <v>0.02939707704242818</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.351026291511</v>
+        <v>30.40497333333333</v>
       </c>
       <c r="N4">
-        <v>30.351026291511</v>
+        <v>91.21491999999999</v>
       </c>
       <c r="O4">
-        <v>0.1960407799318153</v>
+        <v>0.1934541136195998</v>
       </c>
       <c r="P4">
-        <v>0.1960407799318153</v>
+        <v>0.1934541136195998</v>
       </c>
       <c r="Q4">
-        <v>75.49298210712907</v>
+        <v>91.19177168030222</v>
       </c>
       <c r="R4">
-        <v>75.49298210712907</v>
+        <v>820.72594512272</v>
       </c>
       <c r="S4">
-        <v>0.004860353897109247</v>
+        <v>0.005686985482250032</v>
       </c>
       <c r="T4">
-        <v>0.004860353897109247</v>
+        <v>0.00568698548225003</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.48732880997319</v>
+        <v>2.999238666666667</v>
       </c>
       <c r="H5">
-        <v>2.48732880997319</v>
+        <v>8.997716</v>
       </c>
       <c r="I5">
-        <v>0.02479256560191059</v>
+        <v>0.02939707704242819</v>
       </c>
       <c r="J5">
-        <v>0.02479256560191059</v>
+        <v>0.02939707704242818</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.9612820997988</v>
+        <v>29.91468833333333</v>
       </c>
       <c r="N5">
-        <v>28.9612820997988</v>
+        <v>89.74406500000001</v>
       </c>
       <c r="O5">
-        <v>0.187064261884873</v>
+        <v>0.1903346354652808</v>
       </c>
       <c r="P5">
-        <v>0.187064261884873</v>
+        <v>0.1903346354652808</v>
       </c>
       <c r="Q5">
-        <v>72.0362313405904</v>
+        <v>89.72128995061556</v>
       </c>
       <c r="R5">
-        <v>72.0362313405904</v>
+        <v>807.4916095555401</v>
       </c>
       <c r="S5">
-        <v>0.004637802984553695</v>
+        <v>0.005595281942615345</v>
       </c>
       <c r="T5">
-        <v>0.004637802984553695</v>
+        <v>0.005595281942615343</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.48732880997319</v>
+        <v>2.999238666666667</v>
       </c>
       <c r="H6">
-        <v>2.48732880997319</v>
+        <v>8.997716</v>
       </c>
       <c r="I6">
-        <v>0.02479256560191059</v>
+        <v>0.02939707704242819</v>
       </c>
       <c r="J6">
-        <v>0.02479256560191059</v>
+        <v>0.02939707704242818</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.24235096693426</v>
+        <v>6.760378</v>
       </c>
       <c r="N6">
-        <v>6.24235096693426</v>
+        <v>20.281134</v>
       </c>
       <c r="O6">
-        <v>0.04032006497612869</v>
+        <v>0.04301345439068881</v>
       </c>
       <c r="P6">
-        <v>0.04032006497612869</v>
+        <v>0.04301345439068881</v>
       </c>
       <c r="Q6">
-        <v>15.52677940201959</v>
+        <v>20.27598709888267</v>
       </c>
       <c r="R6">
-        <v>15.52677940201959</v>
+        <v>182.483883889944</v>
       </c>
       <c r="S6">
-        <v>0.0009996378559939678</v>
+        <v>0.00126446983258405</v>
       </c>
       <c r="T6">
-        <v>0.0009996378559939678</v>
+        <v>0.00126446983258405</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>94.5057954414072</v>
+        <v>94.90060933333332</v>
       </c>
       <c r="H7">
-        <v>94.5057954414072</v>
+        <v>284.701828</v>
       </c>
       <c r="I7">
-        <v>0.9419909116346725</v>
+        <v>0.9301695643467897</v>
       </c>
       <c r="J7">
-        <v>0.9419909116346725</v>
+        <v>0.9301695643467893</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.772400293381</v>
+        <v>34.48183333333333</v>
       </c>
       <c r="N7">
-        <v>33.772400293381</v>
+        <v>103.4455</v>
       </c>
       <c r="O7">
-        <v>0.21813982927937</v>
+        <v>0.2193934666657199</v>
       </c>
       <c r="P7">
-        <v>0.21813982927937</v>
+        <v>0.2193934666657199</v>
       </c>
       <c r="Q7">
-        <v>3191.687553691585</v>
+        <v>3272.346994263778</v>
       </c>
       <c r="R7">
-        <v>3191.687553691585</v>
+        <v>29451.122948374</v>
       </c>
       <c r="S7">
-        <v>0.2054857366467055</v>
+        <v>0.2040731253089846</v>
       </c>
       <c r="T7">
-        <v>0.2054857366467055</v>
+        <v>0.2040731253089846</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>94.5057954414072</v>
+        <v>94.90060933333332</v>
       </c>
       <c r="H8">
-        <v>94.5057954414072</v>
+        <v>284.701828</v>
       </c>
       <c r="I8">
-        <v>0.9419909116346725</v>
+        <v>0.9301695643467897</v>
       </c>
       <c r="J8">
-        <v>0.9419909116346725</v>
+        <v>0.9301695643467893</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.4929033278497</v>
+        <v>55.607043</v>
       </c>
       <c r="N8">
-        <v>55.4929033278497</v>
+        <v>166.821129</v>
       </c>
       <c r="O8">
-        <v>0.3584350639278132</v>
+        <v>0.3538043298587107</v>
       </c>
       <c r="P8">
-        <v>0.3584350639278132</v>
+        <v>0.3538043298587107</v>
       </c>
       <c r="Q8">
-        <v>5244.400970351549</v>
+        <v>5277.142263924867</v>
       </c>
       <c r="R8">
-        <v>5244.400970351549</v>
+        <v>47494.2803753238</v>
       </c>
       <c r="S8">
-        <v>0.3376425726311928</v>
+        <v>0.3290980193686848</v>
       </c>
       <c r="T8">
-        <v>0.3376425726311928</v>
+        <v>0.3290980193686847</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>94.5057954414072</v>
+        <v>94.90060933333332</v>
       </c>
       <c r="H9">
-        <v>94.5057954414072</v>
+        <v>284.701828</v>
       </c>
       <c r="I9">
-        <v>0.9419909116346725</v>
+        <v>0.9301695643467897</v>
       </c>
       <c r="J9">
-        <v>0.9419909116346725</v>
+        <v>0.9301695643467893</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.351026291511</v>
+        <v>30.40497333333333</v>
       </c>
       <c r="N9">
-        <v>30.351026291511</v>
+        <v>91.21491999999999</v>
       </c>
       <c r="O9">
-        <v>0.1960407799318153</v>
+        <v>0.1934541136195998</v>
       </c>
       <c r="P9">
-        <v>0.1960407799318153</v>
+        <v>0.1934541136195998</v>
       </c>
       <c r="Q9">
-        <v>2868.34788214231</v>
+        <v>2885.450496097084</v>
       </c>
       <c r="R9">
-        <v>2868.34788214231</v>
+        <v>25969.05446487376</v>
       </c>
       <c r="S9">
-        <v>0.1846686330055429</v>
+        <v>0.1799451285866375</v>
       </c>
       <c r="T9">
-        <v>0.1846686330055429</v>
+        <v>0.1799451285866374</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>94.5057954414072</v>
+        <v>94.90060933333332</v>
       </c>
       <c r="H10">
-        <v>94.5057954414072</v>
+        <v>284.701828</v>
       </c>
       <c r="I10">
-        <v>0.9419909116346725</v>
+        <v>0.9301695643467897</v>
       </c>
       <c r="J10">
-        <v>0.9419909116346725</v>
+        <v>0.9301695643467893</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.9612820997988</v>
+        <v>29.91468833333333</v>
       </c>
       <c r="N10">
-        <v>28.9612820997988</v>
+        <v>89.74406500000001</v>
       </c>
       <c r="O10">
-        <v>0.187064261884873</v>
+        <v>0.1903346354652808</v>
       </c>
       <c r="P10">
-        <v>0.187064261884873</v>
+        <v>0.1903346354652808</v>
       </c>
       <c r="Q10">
-        <v>2737.009001844473</v>
+        <v>2838.922150850091</v>
       </c>
       <c r="R10">
-        <v>2737.009001844473</v>
+        <v>25550.29935765082</v>
       </c>
       <c r="S10">
-        <v>0.1762128345871986</v>
+        <v>0.1770434849508453</v>
       </c>
       <c r="T10">
-        <v>0.1762128345871986</v>
+        <v>0.1770434849508452</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>94.5057954414072</v>
+        <v>94.90060933333332</v>
       </c>
       <c r="H11">
-        <v>94.5057954414072</v>
+        <v>284.701828</v>
       </c>
       <c r="I11">
-        <v>0.9419909116346725</v>
+        <v>0.9301695643467897</v>
       </c>
       <c r="J11">
-        <v>0.9419909116346725</v>
+        <v>0.9301695643467893</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.24235096693426</v>
+        <v>6.760378</v>
       </c>
       <c r="N11">
-        <v>6.24235096693426</v>
+        <v>20.281134</v>
       </c>
       <c r="O11">
-        <v>0.04032006497612869</v>
+        <v>0.04301345439068881</v>
       </c>
       <c r="P11">
-        <v>0.04032006497612869</v>
+        <v>0.04301345439068881</v>
       </c>
       <c r="Q11">
-        <v>589.9383435545597</v>
+        <v>641.5639915236612</v>
       </c>
       <c r="R11">
-        <v>589.9383435545597</v>
+        <v>5774.075923712952</v>
       </c>
       <c r="S11">
-        <v>0.03798113476403269</v>
+        <v>0.04000980613163752</v>
       </c>
       <c r="T11">
-        <v>0.03798113476403269</v>
+        <v>0.04000980613163751</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.33246729536576</v>
+        <v>0.234972</v>
       </c>
       <c r="H12">
-        <v>3.33246729536576</v>
+        <v>0.704916</v>
       </c>
       <c r="I12">
-        <v>0.0332165227634169</v>
+        <v>0.002303081133083142</v>
       </c>
       <c r="J12">
-        <v>0.0332165227634169</v>
+        <v>0.002303081133083141</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.772400293381</v>
+        <v>34.48183333333333</v>
       </c>
       <c r="N12">
-        <v>33.772400293381</v>
+        <v>103.4455</v>
       </c>
       <c r="O12">
-        <v>0.21813982927937</v>
+        <v>0.2193934666657199</v>
       </c>
       <c r="P12">
-        <v>0.21813982927937</v>
+        <v>0.2193934666657199</v>
       </c>
       <c r="Q12">
-        <v>112.5454194636932</v>
+        <v>8.102265341999999</v>
       </c>
       <c r="R12">
-        <v>112.5454194636932</v>
+        <v>72.920388078</v>
       </c>
       <c r="S12">
-        <v>0.007245846604866069</v>
+        <v>0.0005052809537995247</v>
       </c>
       <c r="T12">
-        <v>0.007245846604866069</v>
+        <v>0.0005052809537995245</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>3.33246729536576</v>
+        <v>0.234972</v>
       </c>
       <c r="H13">
-        <v>3.33246729536576</v>
+        <v>0.704916</v>
       </c>
       <c r="I13">
-        <v>0.0332165227634169</v>
+        <v>0.002303081133083142</v>
       </c>
       <c r="J13">
-        <v>0.0332165227634169</v>
+        <v>0.002303081133083141</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>55.4929033278497</v>
+        <v>55.607043</v>
       </c>
       <c r="N13">
-        <v>55.4929033278497</v>
+        <v>166.821129</v>
       </c>
       <c r="O13">
-        <v>0.3584350639278132</v>
+        <v>0.3538043298587107</v>
       </c>
       <c r="P13">
-        <v>0.3584350639278132</v>
+        <v>0.3538043298587107</v>
       </c>
       <c r="Q13">
-        <v>184.9282854649529</v>
+        <v>13.066098107796</v>
       </c>
       <c r="R13">
-        <v>184.9282854649529</v>
+        <v>117.594882970164</v>
       </c>
       <c r="S13">
-        <v>0.011905966460165</v>
+        <v>0.0008148400769007211</v>
       </c>
       <c r="T13">
-        <v>0.011905966460165</v>
+        <v>0.0008148400769007208</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.33246729536576</v>
+        <v>0.234972</v>
       </c>
       <c r="H14">
-        <v>3.33246729536576</v>
+        <v>0.704916</v>
       </c>
       <c r="I14">
-        <v>0.0332165227634169</v>
+        <v>0.002303081133083142</v>
       </c>
       <c r="J14">
-        <v>0.0332165227634169</v>
+        <v>0.002303081133083141</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.351026291511</v>
+        <v>30.40497333333333</v>
       </c>
       <c r="N14">
-        <v>30.351026291511</v>
+        <v>91.21491999999999</v>
       </c>
       <c r="O14">
-        <v>0.1960407799318153</v>
+        <v>0.1934541136195998</v>
       </c>
       <c r="P14">
-        <v>0.1960407799318153</v>
+        <v>0.1934541136195998</v>
       </c>
       <c r="Q14">
-        <v>101.1438024972467</v>
+        <v>7.144317394079999</v>
       </c>
       <c r="R14">
-        <v>101.1438024972467</v>
+        <v>64.29885654671999</v>
       </c>
       <c r="S14">
-        <v>0.006511793029163147</v>
+        <v>0.0004455405191946226</v>
       </c>
       <c r="T14">
-        <v>0.006511793029163147</v>
+        <v>0.0004455405191946225</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.33246729536576</v>
+        <v>0.234972</v>
       </c>
       <c r="H15">
-        <v>3.33246729536576</v>
+        <v>0.704916</v>
       </c>
       <c r="I15">
-        <v>0.0332165227634169</v>
+        <v>0.002303081133083142</v>
       </c>
       <c r="J15">
-        <v>0.0332165227634169</v>
+        <v>0.002303081133083141</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>28.9612820997988</v>
+        <v>29.91468833333333</v>
       </c>
       <c r="N15">
-        <v>28.9612820997988</v>
+        <v>89.74406500000001</v>
       </c>
       <c r="O15">
-        <v>0.187064261884873</v>
+        <v>0.1903346354652808</v>
       </c>
       <c r="P15">
-        <v>0.187064261884873</v>
+        <v>0.1903346354652808</v>
       </c>
       <c r="Q15">
-        <v>96.51252542944131</v>
+        <v>7.02911414706</v>
       </c>
       <c r="R15">
-        <v>96.51252542944131</v>
+        <v>63.26202732354</v>
       </c>
       <c r="S15">
-        <v>0.006213624313120664</v>
+        <v>0.0004383561079123456</v>
       </c>
       <c r="T15">
-        <v>0.006213624313120664</v>
+        <v>0.0004383561079123454</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.234972</v>
+      </c>
+      <c r="H16">
+        <v>0.704916</v>
+      </c>
+      <c r="I16">
+        <v>0.002303081133083142</v>
+      </c>
+      <c r="J16">
+        <v>0.002303081133083141</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.760378</v>
+      </c>
+      <c r="N16">
+        <v>20.281134</v>
+      </c>
+      <c r="O16">
+        <v>0.04301345439068881</v>
+      </c>
+      <c r="P16">
+        <v>0.04301345439068881</v>
+      </c>
+      <c r="Q16">
+        <v>1.588499539416</v>
+      </c>
+      <c r="R16">
+        <v>14.296495854744</v>
+      </c>
+      <c r="S16">
+        <v>9.906347527592761E-05</v>
+      </c>
+      <c r="T16">
+        <v>9.906347527592759E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1421</v>
+      </c>
+      <c r="H17">
+        <v>0.4263</v>
+      </c>
+      <c r="I17">
+        <v>0.001392795009665468</v>
+      </c>
+      <c r="J17">
+        <v>0.001392795009665468</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>34.48183333333333</v>
+      </c>
+      <c r="N17">
+        <v>103.4455</v>
+      </c>
+      <c r="O17">
+        <v>0.2193934666657199</v>
+      </c>
+      <c r="P17">
+        <v>0.2193934666657199</v>
+      </c>
+      <c r="Q17">
+        <v>4.899868516666667</v>
+      </c>
+      <c r="R17">
+        <v>44.09881665</v>
+      </c>
+      <c r="S17">
+        <v>0.000305570125525222</v>
+      </c>
+      <c r="T17">
+        <v>0.0003055701255252219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1421</v>
+      </c>
+      <c r="H18">
+        <v>0.4263</v>
+      </c>
+      <c r="I18">
+        <v>0.001392795009665468</v>
+      </c>
+      <c r="J18">
+        <v>0.001392795009665468</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>55.607043</v>
+      </c>
+      <c r="N18">
+        <v>166.821129</v>
+      </c>
+      <c r="O18">
+        <v>0.3538043298587107</v>
+      </c>
+      <c r="P18">
+        <v>0.3538043298587107</v>
+      </c>
+      <c r="Q18">
+        <v>7.9017608103</v>
+      </c>
+      <c r="R18">
+        <v>71.1158472927</v>
+      </c>
+      <c r="S18">
+        <v>0.0004927769050252476</v>
+      </c>
+      <c r="T18">
+        <v>0.0004927769050252473</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1421</v>
+      </c>
+      <c r="H19">
+        <v>0.4263</v>
+      </c>
+      <c r="I19">
+        <v>0.001392795009665468</v>
+      </c>
+      <c r="J19">
+        <v>0.001392795009665468</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>30.40497333333333</v>
+      </c>
+      <c r="N19">
+        <v>91.21491999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.1934541136195998</v>
+      </c>
+      <c r="P19">
+        <v>0.1934541136195998</v>
+      </c>
+      <c r="Q19">
+        <v>4.320546710666666</v>
+      </c>
+      <c r="R19">
+        <v>38.884920396</v>
+      </c>
+      <c r="S19">
+        <v>0.0002694419240486351</v>
+      </c>
+      <c r="T19">
+        <v>0.000269441924048635</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1421</v>
+      </c>
+      <c r="H20">
+        <v>0.4263</v>
+      </c>
+      <c r="I20">
+        <v>0.001392795009665468</v>
+      </c>
+      <c r="J20">
+        <v>0.001392795009665468</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>29.91468833333333</v>
+      </c>
+      <c r="N20">
+        <v>89.74406500000001</v>
+      </c>
+      <c r="O20">
+        <v>0.1903346354652808</v>
+      </c>
+      <c r="P20">
+        <v>0.1903346354652808</v>
+      </c>
+      <c r="Q20">
+        <v>4.250877212166666</v>
+      </c>
+      <c r="R20">
+        <v>38.2578949095</v>
+      </c>
+      <c r="S20">
+        <v>0.0002650971304425391</v>
+      </c>
+      <c r="T20">
+        <v>0.000265097130442539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1421</v>
+      </c>
+      <c r="H21">
+        <v>0.4263</v>
+      </c>
+      <c r="I21">
+        <v>0.001392795009665468</v>
+      </c>
+      <c r="J21">
+        <v>0.001392795009665468</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.760378</v>
+      </c>
+      <c r="N21">
+        <v>20.281134</v>
+      </c>
+      <c r="O21">
+        <v>0.04301345439068881</v>
+      </c>
+      <c r="P21">
+        <v>0.04301345439068881</v>
+      </c>
+      <c r="Q21">
+        <v>0.9606497138000001</v>
+      </c>
+      <c r="R21">
+        <v>8.645847424200001</v>
+      </c>
+      <c r="S21">
+        <v>5.99089246238246E-05</v>
+      </c>
+      <c r="T21">
+        <v>5.990892462382458E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.748144</v>
+      </c>
+      <c r="H22">
+        <v>11.244432</v>
+      </c>
+      <c r="I22">
+        <v>0.03673748246803354</v>
+      </c>
+      <c r="J22">
+        <v>0.03673748246803353</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>34.48183333333333</v>
+      </c>
+      <c r="N22">
+        <v>103.4455</v>
+      </c>
+      <c r="O22">
+        <v>0.2193934666657199</v>
+      </c>
+      <c r="P22">
+        <v>0.2193934666657199</v>
+      </c>
+      <c r="Q22">
+        <v>129.2428767173333</v>
+      </c>
+      <c r="R22">
+        <v>1163.185890456</v>
+      </c>
+      <c r="S22">
+        <v>0.008059963635232988</v>
+      </c>
+      <c r="T22">
+        <v>0.008059963635232984</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.748144</v>
+      </c>
+      <c r="H23">
+        <v>11.244432</v>
+      </c>
+      <c r="I23">
+        <v>0.03673748246803354</v>
+      </c>
+      <c r="J23">
+        <v>0.03673748246803353</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>55.607043</v>
+      </c>
+      <c r="N23">
+        <v>166.821129</v>
+      </c>
+      <c r="O23">
+        <v>0.3538043298587107</v>
+      </c>
+      <c r="P23">
+        <v>0.3538043298587107</v>
+      </c>
+      <c r="Q23">
+        <v>208.423204578192</v>
+      </c>
+      <c r="R23">
+        <v>1875.808841203728</v>
+      </c>
+      <c r="S23">
+        <v>0.01299788036529874</v>
+      </c>
+      <c r="T23">
+        <v>0.01299788036529874</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3.33246729536576</v>
-      </c>
-      <c r="H16">
-        <v>3.33246729536576</v>
-      </c>
-      <c r="I16">
-        <v>0.0332165227634169</v>
-      </c>
-      <c r="J16">
-        <v>0.0332165227634169</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>6.24235096693426</v>
-      </c>
-      <c r="N16">
-        <v>6.24235096693426</v>
-      </c>
-      <c r="O16">
-        <v>0.04032006497612869</v>
-      </c>
-      <c r="P16">
-        <v>0.04032006497612869</v>
-      </c>
-      <c r="Q16">
-        <v>20.80243044350325</v>
-      </c>
-      <c r="R16">
-        <v>20.80243044350325</v>
-      </c>
-      <c r="S16">
-        <v>0.001339292356102027</v>
-      </c>
-      <c r="T16">
-        <v>0.001339292356102027</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.748144</v>
+      </c>
+      <c r="H24">
+        <v>11.244432</v>
+      </c>
+      <c r="I24">
+        <v>0.03673748246803354</v>
+      </c>
+      <c r="J24">
+        <v>0.03673748246803353</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>30.40497333333333</v>
+      </c>
+      <c r="N24">
+        <v>91.21491999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.1934541136195998</v>
+      </c>
+      <c r="P24">
+        <v>0.1934541136195998</v>
+      </c>
+      <c r="Q24">
+        <v>113.9622183694933</v>
+      </c>
+      <c r="R24">
+        <v>1025.65996532544</v>
+      </c>
+      <c r="S24">
+        <v>0.007107017107469016</v>
+      </c>
+      <c r="T24">
+        <v>0.007107017107469013</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.748144</v>
+      </c>
+      <c r="H25">
+        <v>11.244432</v>
+      </c>
+      <c r="I25">
+        <v>0.03673748246803354</v>
+      </c>
+      <c r="J25">
+        <v>0.03673748246803353</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>29.91468833333333</v>
+      </c>
+      <c r="N25">
+        <v>89.74406500000001</v>
+      </c>
+      <c r="O25">
+        <v>0.1903346354652808</v>
+      </c>
+      <c r="P25">
+        <v>0.1903346354652808</v>
+      </c>
+      <c r="Q25">
+        <v>112.1245595884533</v>
+      </c>
+      <c r="R25">
+        <v>1009.12103629608</v>
+      </c>
+      <c r="S25">
+        <v>0.006992415333465308</v>
+      </c>
+      <c r="T25">
+        <v>0.006992415333465306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.748144</v>
+      </c>
+      <c r="H26">
+        <v>11.244432</v>
+      </c>
+      <c r="I26">
+        <v>0.03673748246803354</v>
+      </c>
+      <c r="J26">
+        <v>0.03673748246803353</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.760378</v>
+      </c>
+      <c r="N26">
+        <v>20.281134</v>
+      </c>
+      <c r="O26">
+        <v>0.04301345439068881</v>
+      </c>
+      <c r="P26">
+        <v>0.04301345439068881</v>
+      </c>
+      <c r="Q26">
+        <v>25.338870238432</v>
+      </c>
+      <c r="R26">
+        <v>228.049832145888</v>
+      </c>
+      <c r="S26">
+        <v>0.001580206026567491</v>
+      </c>
+      <c r="T26">
+        <v>0.00158020602656749</v>
       </c>
     </row>
   </sheetData>
